--- a/files/testhtml.xlsx
+++ b/files/testhtml.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry_Hung\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,6 +51,10 @@
   </si>
   <si>
     <t>五五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +388,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -417,21 +417,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
       <c r="C4">
         <v>66</v>
